--- a/testowy.xlsx
+++ b/testowy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\STUDIA\sem4\esi\projekt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9DE640-159B-4206-8A08-77C0F13EA8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F494F4-0C75-4D16-87EF-6FD5E4EC2E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38C0FF1C-E2E6-4D8D-AF5E-F990C70650C5}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38C0FF1C-E2E6-4D8D-AF5E-F990C70650C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>miasto</t>
   </si>
   <si>
-    <t xml:space="preserve">reklama </t>
-  </si>
-  <si>
     <t>Internet</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Telewizja</t>
+  </si>
+  <si>
+    <t>reklama</t>
   </si>
 </sst>
 </file>
@@ -129,10 +129,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -450,436 +450,436 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
         <v>1</v>
       </c>
     </row>
